--- a/excel_routes/route_JED_CCE_threats.xlsx
+++ b/excel_routes/route_JED_CCE_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K220"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,27 +546,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-476</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-628</t>
+          <t>Nile Air NP-328</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>526</v>
+        <v>646</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-125</v>
+        <v>-45</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,36 +591,36 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-476</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-530</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>401</v>
+        <v>724</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>526</v>
+        <v>646</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-125</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-430</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>503</v>
+        <v>595</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>526</v>
+        <v>646</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-23</v>
+        <v>-51</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -681,27 +681,27 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-973</t>
+          <t>Nile Air NP-328</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>646</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-51</v>
+        <v>-45</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -726,27 +726,27 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-228</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>646</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-45</v>
+        <v>-16</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -771,36 +771,36 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-173</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>645</v>
+        <v>749</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>646</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,36 +816,36 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>645</v>
+        <v>749</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>646</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -861,27 +861,27 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>646</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>46</v>
@@ -892,9 +892,9 @@
       <c r="I9" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -906,17 +906,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -951,27 +951,27 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-644</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>646</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>46</v>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-670</t>
+          <t>EgyptAir MS-644</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>805</v>
+        <v>749</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>646</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>46</v>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1086,36 +1086,36 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-328</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>601</v>
+        <v>848</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>646</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-45</v>
+        <v>202</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1131,27 +1131,27 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>646</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>46</v>
@@ -1176,27 +1176,27 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>646</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>46</v>
@@ -1221,36 +1221,36 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>784</v>
+        <v>691</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>138</v>
+        <v>-90</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1266,36 +1266,36 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-672</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>805</v>
+        <v>710</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>159</v>
+        <v>-71</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1311,36 +1311,36 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-670</t>
+          <t>Air Arabia Egypt E5-322</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>805</v>
+        <v>710</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>159</v>
+        <v>-71</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1356,36 +1356,36 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Air Arabia Egypt E5-383</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>856</v>
+        <v>710</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>210</v>
+        <v>-71</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>595</v>
+        <v>745</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-51</v>
+        <v>-36</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,26 +1456,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-328</t>
+          <t>EgyptAir MS-672</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>601</v>
+        <v>848</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-45</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,26 +1501,26 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>601</v>
+        <v>848</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-45</v>
+        <v>67</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,26 +1546,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>630</v>
+        <v>856</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F24" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="n">
         <v>-16</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>749</v>
+        <v>953</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>46</v>
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>EgyptAir MS-644</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>749</v>
+        <v>953</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>46</v>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>749</v>
+        <v>953</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>46</v>
@@ -1716,27 +1716,27 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-476</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>46</v>
@@ -1761,12 +1761,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-476</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>46</v>
@@ -1806,27 +1806,27 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-476</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>779</v>
+        <v>856</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>46</v>
@@ -1851,36 +1851,36 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-672</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>805</v>
+        <v>695</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>159</v>
+        <v>-11</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,26 +1906,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-368</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>630</v>
+        <v>848</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="F32" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2" t="n">
         <v>-16</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>46</v>
@@ -1986,36 +1986,36 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>09-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-644</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>749</v>
+        <v>705</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
@@ -2031,36 +2031,36 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Nile Air NP-328</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
         <v>749</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>103</v>
+        <v>-32</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2076,36 +2076,36 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>749</v>
+        <v>780</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,26 +2131,26 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>Nile Air NP-228</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>749</v>
+        <v>834</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>646</v>
+        <v>856</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>103</v>
+        <v>-22</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2176,26 +2176,26 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-668</t>
+          <t>Nesma Airlines NE-173</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>646</v>
+        <v>856</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>202</v>
+        <v>-21</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
@@ -2211,36 +2211,36 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-383</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>673</v>
+        <v>914</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>706</v>
+        <v>856</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-33</v>
+        <v>58</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -2256,36 +2256,36 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>Air Arabia Egypt E5-368</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>691</v>
+        <v>914</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>706</v>
+        <v>856</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-15</v>
+        <v>58</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,17 +2311,17 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>695</v>
+        <v>860</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>706</v>
+        <v>952</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-11</v>
+        <v>-92</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>30</v>
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,26 +2356,26 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>Air Arabia Egypt E5-322</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>749</v>
+        <v>860</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>706</v>
+        <v>952</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>43</v>
+        <v>-92</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,26 +2401,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-672</t>
+          <t>Air Arabia Egypt E5-383</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>706</v>
+        <v>952</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>99</v>
+        <v>-92</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2446,26 +2446,26 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-644</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>848</v>
+        <v>933</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>706</v>
+        <v>952</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>142</v>
+        <v>-19</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,26 +2491,26 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>848</v>
+        <v>935</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>706</v>
+        <v>952</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>142</v>
+        <v>-17</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
@@ -2526,36 +2526,36 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-476</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>706</v>
+        <v>952</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>142</v>
+        <v>-92</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
@@ -2571,36 +2571,36 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-476</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>856</v>
+        <v>897</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>706</v>
+        <v>952</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>150</v>
+        <v>-55</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,17 +2626,17 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>673</v>
+        <v>935</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>781</v>
+        <v>952</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-108</v>
+        <v>-17</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>30</v>
@@ -2661,12 +2661,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -2675,13 +2675,13 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>697</v>
+        <v>972</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>781</v>
+        <v>1066</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-84</v>
+        <v>-94</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>30</v>
@@ -2706,27 +2706,27 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Nile Air NP-228</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>745</v>
+        <v>1043</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>781</v>
+        <v>1066</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-36</v>
+        <v>-23</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>30</v>
@@ -2751,40 +2751,40 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>749</v>
+        <v>1043</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>781</v>
+        <v>1066</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-32</v>
+        <v>-23</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J51" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
@@ -2796,27 +2796,27 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>Nesma Airlines NE-179</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>749</v>
+        <v>1045</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>781</v>
+        <v>1066</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-32</v>
+        <v>-21</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>30</v>
@@ -2841,36 +2841,36 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-644</t>
+          <t>Nesma Airlines NE-971</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>848</v>
+        <v>1045</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>781</v>
+        <v>1066</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>67</v>
+        <v>-21</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
@@ -2886,40 +2886,40 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>848</v>
+        <v>1135</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>781</v>
+        <v>1366</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>67</v>
+        <v>-231</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
@@ -2931,36 +2931,36 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>856</v>
+        <v>1216</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>781</v>
+        <v>1366</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>75</v>
+        <v>-150</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
@@ -2976,36 +2976,36 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-670</t>
+          <t>Nile Air NP-228</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>1009</v>
+        <v>1333</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>781</v>
+        <v>1366</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>228</v>
+        <v>-33</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
@@ -3021,27 +3021,27 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-228</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>691</v>
+        <v>1333</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>706</v>
+        <v>1366</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-15</v>
+        <v>-33</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>30</v>
@@ -3066,27 +3066,27 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>Nesma Airlines NE-973</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>691</v>
+        <v>1335</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>706</v>
+        <v>1366</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-15</v>
+        <v>-31</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>30</v>
@@ -3111,27 +3111,27 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>Saudia SV-309</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>848</v>
+        <v>1455</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>706</v>
+        <v>1366</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>46</v>
@@ -3156,40 +3156,40 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-644</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>848</v>
+        <v>1471</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>706</v>
+        <v>1774</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>142</v>
+        <v>-303</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
@@ -3201,40 +3201,40 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Nile Air NP-428</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>848</v>
+        <v>1529</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>706</v>
+        <v>1774</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>142</v>
+        <v>-245</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
@@ -3246,40 +3246,40 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>Nile Air NP-328</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>848</v>
+        <v>1529</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>706</v>
+        <v>1774</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>142</v>
+        <v>-245</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
@@ -3291,40 +3291,40 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>848</v>
+        <v>1535</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>706</v>
+        <v>1774</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>142</v>
+        <v>-239</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
@@ -3336,40 +3336,40 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-672</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>904</v>
+        <v>1589</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>706</v>
+        <v>2032</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>198</v>
+        <v>-443</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
@@ -3381,7 +3381,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -3391,17 +3391,17 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>Air Arabia Egypt E5-322</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>667</v>
+        <v>1589</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-114</v>
+        <v>-443</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>30</v>
@@ -3412,9 +3412,9 @@
       <c r="I65" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J65" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
@@ -3426,7 +3426,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3436,17 +3436,17 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Air Arabia Egypt E5-383</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>705</v>
+        <v>1589</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-76</v>
+        <v>-443</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>30</v>
@@ -3457,9 +3457,9 @@
       <c r="I66" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J66" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J66" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
@@ -3471,7 +3471,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3481,30 +3481,30 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-173</t>
+          <t>Saudia SV-387</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>745</v>
+        <v>1649</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-36</v>
+        <v>-383</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
@@ -3516,7 +3516,7 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -3526,30 +3526,30 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-228</t>
+          <t>Saudia SV-303</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>749</v>
+        <v>1649</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-32</v>
+        <v>-383</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K68" s="2" t="inlineStr">
@@ -3561,7 +3561,7 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -3571,30 +3571,30 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>Saudia SV-301</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>749</v>
+        <v>1649</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-32</v>
+        <v>-383</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -3606,7 +3606,7 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -3616,30 +3616,30 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Saudia SV-305</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>848</v>
+        <v>1649</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>67</v>
+        <v>-383</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J70" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
@@ -3651,7 +3651,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -3661,26 +3661,26 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>953</v>
+        <v>1829</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>172</v>
+        <v>-203</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J71" s="3" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -3706,26 +3706,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>953</v>
+        <v>1829</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>172</v>
+        <v>-203</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J72" s="3" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3751,26 +3751,26 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-644</t>
+          <t>flynas XY-571</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>961</v>
+        <v>1829</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>180</v>
+        <v>-203</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J73" s="3" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -3796,26 +3796,26 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-328</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>749</v>
+        <v>1829</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-32</v>
+        <v>-203</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J74" s="3" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -3841,26 +3841,26 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>flynas XY-589</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>749</v>
+        <v>1829</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-32</v>
+        <v>-203</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J75" s="3" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -3886,26 +3886,26 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>flynas XY-569</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>780</v>
+        <v>1829</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-1</v>
+        <v>-203</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J76" s="3" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -3931,30 +3931,30 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-670</t>
+          <t>Nile Air NP-328</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>805</v>
+        <v>1849</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>781</v>
+        <v>2032</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>24</v>
+        <v>-183</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J77" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J77" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
@@ -3966,36 +3966,36 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Saudia SV-383</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>742</v>
+        <v>1903</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>856</v>
+        <v>2032</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>-114</v>
+        <v>-129</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J78" s="3" t="inlineStr">
         <is>
@@ -4011,36 +4011,36 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-368</t>
+          <t>Saudia SV-389</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>742</v>
+        <v>1903</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>856</v>
+        <v>2032</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>-114</v>
+        <v>-129</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J79" s="3" t="inlineStr">
         <is>
@@ -4056,36 +4056,36 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-179</t>
+          <t>Saudia SV-307</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>745</v>
+        <v>1903</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>856</v>
+        <v>2032</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>-111</v>
+        <v>-129</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J80" s="3" t="inlineStr">
         <is>
@@ -4101,36 +4101,36 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-228</t>
+          <t>Saudia SV-3459</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>834</v>
+        <v>1903</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>856</v>
+        <v>2032</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>-22</v>
+        <v>-129</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J81" s="3" t="inlineStr">
         <is>
@@ -4146,36 +4146,36 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Saudia SV-335</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>835</v>
+        <v>1903</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>856</v>
+        <v>2032</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>-21</v>
+        <v>-129</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J82" s="3" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -4201,26 +4201,26 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flyadeal F3-755</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>823</v>
+        <v>2099</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>952</v>
+        <v>2032</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-129</v>
+        <v>67</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J83" s="3" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -4246,26 +4246,26 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-322</t>
+          <t>flyadeal F3-753</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>823</v>
+        <v>2099</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>952</v>
+        <v>2032</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-129</v>
+        <v>67</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J84" s="3" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -4291,26 +4291,26 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-383</t>
+          <t>flyadeal F3-763</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>823</v>
+        <v>2099</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>952</v>
+        <v>2032</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-129</v>
+        <v>67</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J85" s="3" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -4336,26 +4336,26 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>flyadeal F3-761</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>835</v>
+        <v>2099</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>952</v>
+        <v>2032</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>-117</v>
+        <v>67</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J86" s="3" t="inlineStr">
         <is>
@@ -4371,36 +4371,36 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>flyadeal F3-757</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>823</v>
+        <v>2099</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>952</v>
+        <v>2032</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>-129</v>
+        <v>67</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
@@ -4416,36 +4416,36 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>860</v>
+        <v>1829</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>952</v>
+        <v>2032</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>-92</v>
+        <v>-203</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J88" s="3" t="inlineStr">
         <is>
@@ -4461,36 +4461,36 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>935</v>
+        <v>1829</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>952</v>
+        <v>2032</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>-17</v>
+        <v>-203</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J89" s="3" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -4516,26 +4516,26 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>935</v>
+        <v>1829</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>952</v>
+        <v>2032</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>-17</v>
+        <v>-203</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -4561,26 +4561,26 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-971</t>
+          <t>flynas XY-571</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>935</v>
+        <v>1829</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>952</v>
+        <v>2032</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>-17</v>
+        <v>-203</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J91" s="3" t="inlineStr">
         <is>
@@ -4596,40 +4596,40 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>1079</v>
+        <v>1829</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>1366</v>
+        <v>2032</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>-287</v>
+        <v>-203</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
@@ -4641,40 +4641,40 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-589</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>1135</v>
+        <v>1829</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>1366</v>
+        <v>2032</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>-231</v>
+        <v>-203</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J93" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K93" s="2" t="inlineStr">
@@ -4686,36 +4686,36 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-973</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>1175</v>
+        <v>1829</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>1366</v>
+        <v>2032</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>-191</v>
+        <v>-203</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J94" s="3" t="inlineStr">
         <is>
@@ -4731,36 +4731,36 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-228</t>
+          <t>flynas XY-569</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>1333</v>
+        <v>1829</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>1366</v>
+        <v>2032</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>-33</v>
+        <v>-203</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J95" s="3" t="inlineStr">
         <is>
@@ -4776,27 +4776,27 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-173</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>1335</v>
+        <v>1845</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>1366</v>
+        <v>2032</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>-31</v>
+        <v>-187</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>30</v>
@@ -4821,27 +4821,27 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>Nile Air NP-428</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>1471</v>
+        <v>1849</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>1552</v>
+        <v>2032</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>-81</v>
+        <v>-183</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>30</v>
@@ -4866,27 +4866,27 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-328</t>
+          <t>Nile Air NP-228</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>1529</v>
+        <v>1849</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>1552</v>
+        <v>2032</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>-23</v>
+        <v>-183</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>30</v>
@@ -4911,27 +4911,27 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-173</t>
+          <t>Nile Air NP-328</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>1535</v>
+        <v>1849</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>1552</v>
+        <v>2032</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-17</v>
+        <v>-183</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>30</v>
@@ -4956,27 +4956,27 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>1535</v>
+        <v>1849</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>1552</v>
+        <v>2032</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-17</v>
+        <v>-183</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>30</v>
@@ -5001,40 +5001,40 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-322</t>
+          <t>Saudia SV-301</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>1533</v>
+        <v>1903</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-499</v>
+        <v>-129</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J101" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K101" s="2" t="inlineStr">
@@ -5046,40 +5046,40 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Saudia SV-335</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>1589</v>
+        <v>1903</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-443</v>
+        <v>-129</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J102" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K102" s="2" t="inlineStr">
@@ -5091,27 +5091,27 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-383</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>1589</v>
+        <v>2019</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>-443</v>
+        <v>-13</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>30</v>
@@ -5122,9 +5122,9 @@
       <c r="I103" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J103" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J103" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K103" s="2" t="inlineStr">
@@ -5136,40 +5136,40 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-301</t>
+          <t>flyadeal F3-753</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>1649</v>
+        <v>2099</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>-383</v>
+        <v>67</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J104" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J104" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K104" s="2" t="inlineStr">
@@ -5181,40 +5181,40 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-307</t>
+          <t>flyadeal F3-763</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>1649</v>
+        <v>2099</v>
       </c>
       <c r="E105" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>-383</v>
+        <v>67</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J105" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J105" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K105" s="2" t="inlineStr">
@@ -5226,40 +5226,40 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-305</t>
+          <t>flyadeal F3-751</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>1649</v>
+        <v>2099</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>-383</v>
+        <v>67</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I106" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J106" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J106" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K106" s="2" t="inlineStr">
@@ -5271,40 +5271,40 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>flyadeal F3-761</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>1649</v>
+        <v>2099</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-383</v>
+        <v>67</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J107" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J107" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K107" s="2" t="inlineStr">
@@ -5316,36 +5316,36 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>flyadeal F3-755</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>1845</v>
+        <v>2124</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-187</v>
+        <v>92</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J108" s="3" t="inlineStr">
         <is>
@@ -5361,36 +5361,36 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-528</t>
+          <t>flyadeal F3-757</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>1849</v>
+        <v>2124</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>-183</v>
+        <v>92</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J109" s="3" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -5416,26 +5416,26 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-387</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>1867</v>
+        <v>1479</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>-165</v>
+        <v>-553</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J110" s="5" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -5461,26 +5461,26 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-303</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>1867</v>
+        <v>1479</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>-165</v>
+        <v>-553</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I111" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J111" s="5" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -5506,30 +5506,30 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-573</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>2019</v>
+        <v>1479</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>-13</v>
+        <v>-553</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I112" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J112" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J112" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K112" s="2" t="inlineStr">
@@ -5541,7 +5541,7 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -5555,22 +5555,22 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>2019</v>
+        <v>1829</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>-13</v>
+        <v>-203</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J113" s="3" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -5600,22 +5600,22 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>2019</v>
+        <v>1829</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>-13</v>
+        <v>-203</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H114" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I114" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J114" s="3" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -5641,26 +5641,26 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-567</t>
+          <t>flynas XY-589</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>2019</v>
+        <v>1829</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>-13</v>
+        <v>-203</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H115" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I115" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J115" s="3" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -5686,26 +5686,26 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-589</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>2019</v>
+        <v>1829</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>-13</v>
+        <v>-203</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H116" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I116" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J116" s="3" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -5735,22 +5735,22 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>2019</v>
+        <v>1829</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>-13</v>
+        <v>-203</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J117" s="3" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -5776,26 +5776,26 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-755</t>
+          <t>Nile Air NP-428</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>2099</v>
+        <v>1849</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>67</v>
+        <v>-183</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J118" s="3" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -5821,26 +5821,26 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-753</t>
+          <t>Nile Air NP-228</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>2099</v>
+        <v>1849</v>
       </c>
       <c r="E119" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>67</v>
+        <v>-183</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J119" s="3" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -5866,26 +5866,26 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-763</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>2099</v>
+        <v>1849</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>67</v>
+        <v>-183</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H120" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I120" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J120" s="3" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -5911,26 +5911,26 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-761</t>
+          <t>Saudia SV-309</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>2099</v>
+        <v>1903</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>67</v>
+        <v>-129</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J121" s="3" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -5956,26 +5956,26 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-757</t>
+          <t>Saudia SV-383</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>2099</v>
+        <v>1903</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>67</v>
+        <v>-129</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J122" s="3" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -6001,26 +6001,26 @@
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-383</t>
+          <t>Saudia SV-303</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>2120</v>
+        <v>1903</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>88</v>
+        <v>-129</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I123" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J123" s="3" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -6046,26 +6046,26 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-389</t>
+          <t>Saudia SV-301</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>2120</v>
+        <v>1903</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>88</v>
+        <v>-129</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I124" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J124" s="3" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -6091,26 +6091,26 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3459</t>
+          <t>Saudia SV-307</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>2120</v>
+        <v>1903</v>
       </c>
       <c r="E125" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>88</v>
+        <v>-129</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J125" s="3" t="inlineStr">
         <is>
@@ -6126,40 +6126,40 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-228</t>
+          <t>Saudia SV-305</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>1529</v>
+        <v>1903</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>-503</v>
+        <v>-129</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J126" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K126" s="2" t="inlineStr">
@@ -6171,36 +6171,36 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>Saudia SV-335</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>1829</v>
+        <v>1903</v>
       </c>
       <c r="E127" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>-203</v>
+        <v>-129</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J127" s="3" t="inlineStr">
         <is>
@@ -6216,40 +6216,40 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>EgyptAir MS-644</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>1829</v>
+        <v>2043</v>
       </c>
       <c r="E128" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>-203</v>
+        <v>11</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J128" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J128" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K128" s="2" t="inlineStr">
@@ -6261,36 +6261,36 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-571</t>
+          <t>flyadeal F3-755</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>1829</v>
+        <v>2099</v>
       </c>
       <c r="E129" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>-203</v>
+        <v>67</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J129" s="3" t="inlineStr">
         <is>
@@ -6306,36 +6306,36 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-567</t>
+          <t>flyadeal F3-753</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>1829</v>
+        <v>2099</v>
       </c>
       <c r="E130" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>-203</v>
+        <v>67</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J130" s="3" t="inlineStr">
         <is>
@@ -6351,36 +6351,36 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-589</t>
+          <t>flyadeal F3-763</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>1829</v>
+        <v>2099</v>
       </c>
       <c r="E131" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>-203</v>
+        <v>67</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J131" s="3" t="inlineStr">
         <is>
@@ -6396,36 +6396,36 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>flyadeal F3-751</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>1829</v>
+        <v>2099</v>
       </c>
       <c r="E132" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>-203</v>
+        <v>67</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H132" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I132" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J132" s="3" t="inlineStr">
         <is>
@@ -6441,36 +6441,36 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-569</t>
+          <t>flyadeal F3-761</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>1829</v>
+        <v>2099</v>
       </c>
       <c r="E133" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>-203</v>
+        <v>67</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J133" s="3" t="inlineStr">
         <is>
@@ -6486,36 +6486,36 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>flyadeal F3-757</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>1845</v>
+        <v>2099</v>
       </c>
       <c r="E134" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>-187</v>
+        <v>67</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J134" s="3" t="inlineStr">
         <is>
@@ -6531,40 +6531,40 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-428</t>
+          <t>Saudia SV-389</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>1849</v>
+        <v>1429</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>-183</v>
+        <v>-603</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J135" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K135" s="2" t="inlineStr">
@@ -6576,40 +6576,40 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>1849</v>
+        <v>1479</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>-183</v>
+        <v>-553</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J136" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K136" s="2" t="inlineStr">
@@ -6621,12 +6621,12 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -6635,13 +6635,13 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>1903</v>
+        <v>1649</v>
       </c>
       <c r="E137" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>-129</v>
+        <v>-383</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>23</v>
@@ -6652,9 +6652,9 @@
       <c r="I137" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J137" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J137" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K137" s="2" t="inlineStr">
@@ -6666,27 +6666,27 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-387</t>
+          <t>Saudia SV-305</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>1903</v>
+        <v>1649</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>-129</v>
+        <v>-383</v>
       </c>
       <c r="G138" s="2" t="n">
         <v>23</v>
@@ -6697,9 +6697,9 @@
       <c r="I138" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J138" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J138" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K138" s="2" t="inlineStr">
@@ -6711,36 +6711,36 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-301</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>1903</v>
+        <v>1829</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>-129</v>
+        <v>-203</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J139" s="3" t="inlineStr">
         <is>
@@ -6756,36 +6756,36 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>1903</v>
+        <v>1829</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>-129</v>
+        <v>-203</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J140" s="3" t="inlineStr">
         <is>
@@ -6801,36 +6801,36 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-573</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>2019</v>
+        <v>1829</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>-13</v>
+        <v>-203</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H141" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J141" s="3" t="inlineStr">
         <is>
@@ -6846,36 +6846,36 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-589</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>2019</v>
+        <v>1829</v>
       </c>
       <c r="E142" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>-13</v>
+        <v>-203</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H142" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J142" s="3" t="inlineStr">
         <is>
@@ -6891,36 +6891,36 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-755</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>2099</v>
+        <v>1829</v>
       </c>
       <c r="E143" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>67</v>
+        <v>-203</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H143" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I143" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J143" s="3" t="inlineStr">
         <is>
@@ -6936,36 +6936,36 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-753</t>
+          <t>flynas XY-569</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>2099</v>
+        <v>1829</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>67</v>
+        <v>-203</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J144" s="3" t="inlineStr">
         <is>
@@ -6981,36 +6981,36 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-763</t>
+          <t>Nile Air NP-428</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>2099</v>
+        <v>1849</v>
       </c>
       <c r="E145" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>67</v>
+        <v>-183</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H145" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J145" s="3" t="inlineStr">
         <is>
@@ -7026,36 +7026,36 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-751</t>
+          <t>Nile Air NP-328</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>2099</v>
+        <v>1849</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>67</v>
+        <v>-183</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I146" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J146" s="3" t="inlineStr">
         <is>
@@ -7071,36 +7071,36 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-761</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>2099</v>
+        <v>1849</v>
       </c>
       <c r="E147" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>67</v>
+        <v>-183</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J147" s="3" t="inlineStr">
         <is>
@@ -7116,36 +7116,36 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-757</t>
+          <t>Saudia SV-309</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>2124</v>
+        <v>1903</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>92</v>
+        <v>-129</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H148" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I148" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J148" s="3" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -7171,30 +7171,30 @@
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-567</t>
+          <t>Saudia SV-387</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>1479</v>
+        <v>1903</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>-553</v>
+        <v>-129</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H149" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I149" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J149" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J149" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K149" s="2" t="inlineStr">
@@ -7206,7 +7206,7 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -7216,30 +7216,30 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-589</t>
+          <t>Saudia SV-303</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>1479</v>
+        <v>1903</v>
       </c>
       <c r="E150" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>-553</v>
+        <v>-129</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J150" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J150" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K150" s="2" t="inlineStr">
@@ -7251,7 +7251,7 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -7261,30 +7261,30 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>Saudia SV-301</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>1479</v>
+        <v>1903</v>
       </c>
       <c r="E151" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>-553</v>
+        <v>-129</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I151" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J151" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J151" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K151" s="2" t="inlineStr">
@@ -7296,7 +7296,7 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -7306,30 +7306,30 @@
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-428</t>
+          <t>Saudia SV-307</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>1529</v>
+        <v>1903</v>
       </c>
       <c r="E152" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>-503</v>
+        <v>-129</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I152" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J152" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K152" s="2" t="inlineStr">
@@ -7341,7 +7341,7 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -7351,30 +7351,30 @@
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-573</t>
+          <t>Saudia SV-3453</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>1669</v>
+        <v>1903</v>
       </c>
       <c r="E153" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>-363</v>
+        <v>-129</v>
       </c>
       <c r="G153" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H153" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I153" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J153" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J153" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K153" s="2" t="inlineStr">
@@ -7386,7 +7386,7 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -7396,30 +7396,30 @@
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>Saudia SV-335</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>1669</v>
+        <v>1903</v>
       </c>
       <c r="E154" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>-363</v>
+        <v>-129</v>
       </c>
       <c r="G154" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H154" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I154" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J154" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J154" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K154" s="2" t="inlineStr">
@@ -7431,7 +7431,7 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -7441,26 +7441,26 @@
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>flynas XY-571</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>1829</v>
+        <v>2019</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>-203</v>
+        <v>-13</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H155" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I155" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J155" s="3" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -7486,26 +7486,26 @@
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-571</t>
+          <t>flyadeal F3-755</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>1829</v>
+        <v>2099</v>
       </c>
       <c r="E156" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>-203</v>
+        <v>67</v>
       </c>
       <c r="G156" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H156" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J156" s="3" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -7531,26 +7531,26 @@
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-569</t>
+          <t>flyadeal F3-753</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>1829</v>
+        <v>2099</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>-203</v>
+        <v>67</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J157" s="3" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
@@ -7576,26 +7576,26 @@
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-228</t>
+          <t>flyadeal F3-763</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>1849</v>
+        <v>2099</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>-183</v>
+        <v>67</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J158" s="3" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -7621,26 +7621,26 @@
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>flyadeal F3-751</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>1849</v>
+        <v>2099</v>
       </c>
       <c r="E159" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>-183</v>
+        <v>67</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I159" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J159" s="3" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -7666,26 +7666,26 @@
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-303</t>
+          <t>flyadeal F3-761</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>1903</v>
+        <v>2099</v>
       </c>
       <c r="E160" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>-129</v>
+        <v>67</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H160" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I160" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J160" s="3" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -7711,26 +7711,26 @@
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-389</t>
+          <t>flyadeal F3-757</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>1903</v>
+        <v>2099</v>
       </c>
       <c r="E161" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>-129</v>
+        <v>67</v>
       </c>
       <c r="G161" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H161" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I161" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J161" s="3" t="inlineStr">
         <is>
@@ -7746,40 +7746,40 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-301</t>
+          <t>flyadeal F3-755</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>1903</v>
+        <v>1299</v>
       </c>
       <c r="E162" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>-129</v>
+        <v>-733</v>
       </c>
       <c r="G162" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H162" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I162" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J162" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J162" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K162" s="2" t="inlineStr">
@@ -7791,40 +7791,40 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-307</t>
+          <t>flyadeal F3-753</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>1903</v>
+        <v>1299</v>
       </c>
       <c r="E163" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>-129</v>
+        <v>-733</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H163" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I163" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J163" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J163" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K163" s="2" t="inlineStr">
@@ -7836,40 +7836,40 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-305</t>
+          <t>flyadeal F3-763</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>1903</v>
+        <v>1299</v>
       </c>
       <c r="E164" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>-129</v>
+        <v>-733</v>
       </c>
       <c r="G164" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H164" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I164" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J164" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J164" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K164" s="2" t="inlineStr">
@@ -7881,40 +7881,40 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3453</t>
+          <t>flyadeal F3-751</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>1903</v>
+        <v>1299</v>
       </c>
       <c r="E165" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>-129</v>
+        <v>-733</v>
       </c>
       <c r="G165" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I165" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J165" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J165" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K165" s="2" t="inlineStr">
@@ -7926,40 +7926,40 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-755</t>
+          <t>flyadeal F3-761</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>2099</v>
+        <v>1299</v>
       </c>
       <c r="E166" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>67</v>
+        <v>-733</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J166" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J166" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K166" s="2" t="inlineStr">
@@ -7971,40 +7971,40 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-753</t>
+          <t>flyadeal F3-757</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>2099</v>
+        <v>1299</v>
       </c>
       <c r="E167" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>67</v>
+        <v>-733</v>
       </c>
       <c r="G167" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H167" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I167" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J167" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J167" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K167" s="2" t="inlineStr">
@@ -8016,40 +8016,40 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-763</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>2099</v>
+        <v>1479</v>
       </c>
       <c r="E168" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>67</v>
+        <v>-553</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H168" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I168" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J168" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J168" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K168" s="2" t="inlineStr">
@@ -8061,40 +8061,40 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-751</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>2099</v>
+        <v>1479</v>
       </c>
       <c r="E169" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>67</v>
+        <v>-553</v>
       </c>
       <c r="G169" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H169" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I169" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J169" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J169" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K169" s="2" t="inlineStr">
@@ -8106,40 +8106,40 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-761</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>2099</v>
+        <v>1479</v>
       </c>
       <c r="E170" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>67</v>
+        <v>-553</v>
       </c>
       <c r="G170" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H170" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I170" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J170" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J170" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K170" s="2" t="inlineStr">
@@ -8151,40 +8151,40 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-757</t>
+          <t>flynas XY-571</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>2099</v>
+        <v>1479</v>
       </c>
       <c r="E171" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>67</v>
+        <v>-553</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I171" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J171" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J171" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K171" s="2" t="inlineStr">
@@ -8196,40 +8196,40 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-309</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>2120</v>
+        <v>1479</v>
       </c>
       <c r="E172" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>88</v>
+        <v>-553</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I172" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J172" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J172" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K172" s="2" t="inlineStr">
@@ -8241,40 +8241,40 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-383</t>
+          <t>flynas XY-589</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>2120</v>
+        <v>1479</v>
       </c>
       <c r="E173" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>88</v>
+        <v>-553</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J173" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J173" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K173" s="2" t="inlineStr">
@@ -8286,40 +8286,40 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>2120</v>
+        <v>1479</v>
       </c>
       <c r="E174" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>88</v>
+        <v>-553</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I174" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J174" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J174" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K174" s="2" t="inlineStr">
@@ -8341,17 +8341,17 @@
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-755</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>1499</v>
+        <v>1568</v>
       </c>
       <c r="E175" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>-533</v>
+        <v>-464</v>
       </c>
       <c r="G175" s="2" t="n">
         <v>30</v>
@@ -8386,17 +8386,17 @@
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-753</t>
+          <t>Air Arabia Egypt E5-368</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>1499</v>
+        <v>1628</v>
       </c>
       <c r="E176" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>-533</v>
+        <v>-404</v>
       </c>
       <c r="G176" s="2" t="n">
         <v>30</v>
@@ -8431,30 +8431,30 @@
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-763</t>
+          <t>Saudia SV-387</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>1499</v>
+        <v>1649</v>
       </c>
       <c r="E177" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>-533</v>
+        <v>-383</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I177" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J177" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K177" s="2" t="inlineStr">
@@ -8476,17 +8476,17 @@
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-751</t>
+          <t>Nesma Airlines NE-177</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>1499</v>
+        <v>1845</v>
       </c>
       <c r="E178" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>-533</v>
+        <v>-187</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>30</v>
@@ -8497,9 +8497,9 @@
       <c r="I178" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J178" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J178" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K178" s="2" t="inlineStr">
@@ -8521,17 +8521,17 @@
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-761</t>
+          <t>Nile Air NP-428</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>1499</v>
+        <v>1849</v>
       </c>
       <c r="E179" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>-533</v>
+        <v>-183</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>30</v>
@@ -8542,9 +8542,9 @@
       <c r="I179" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J179" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J179" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K179" s="2" t="inlineStr">
@@ -8566,26 +8566,26 @@
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-757</t>
+          <t>Saudia SV-305</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>1499</v>
+        <v>1867</v>
       </c>
       <c r="E180" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>-533</v>
+        <v>-165</v>
       </c>
       <c r="G180" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H180" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I180" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J180" s="5" t="inlineStr">
         <is>
@@ -8611,30 +8611,30 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Saudia SV-309</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>1568</v>
+        <v>1903</v>
       </c>
       <c r="E181" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>-464</v>
+        <v>-129</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I181" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J181" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K181" s="2" t="inlineStr">
@@ -8656,30 +8656,30 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-368</t>
+          <t>Saudia SV-383</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>1628</v>
+        <v>1903</v>
       </c>
       <c r="E182" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>-404</v>
+        <v>-129</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I182" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J182" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K182" s="2" t="inlineStr">
@@ -8701,17 +8701,17 @@
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-309</t>
+          <t>Saudia SV-3261</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>1649</v>
+        <v>1903</v>
       </c>
       <c r="E183" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>-383</v>
+        <v>-129</v>
       </c>
       <c r="G183" s="2" t="n">
         <v>23</v>
@@ -8722,9 +8722,9 @@
       <c r="I183" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J183" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J183" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K183" s="2" t="inlineStr">
@@ -8746,17 +8746,17 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3261</t>
+          <t>Saudia SV-307</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>1649</v>
+        <v>1903</v>
       </c>
       <c r="E184" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>-383</v>
+        <v>-129</v>
       </c>
       <c r="G184" s="2" t="n">
         <v>23</v>
@@ -8767,9 +8767,9 @@
       <c r="I184" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J184" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J184" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K184" s="2" t="inlineStr">
@@ -8791,17 +8791,17 @@
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-307</t>
+          <t>Saudia SV-3497</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>1649</v>
+        <v>1903</v>
       </c>
       <c r="E185" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>-383</v>
+        <v>-129</v>
       </c>
       <c r="G185" s="2" t="n">
         <v>23</v>
@@ -8812,9 +8812,9 @@
       <c r="I185" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J185" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J185" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K185" s="2" t="inlineStr">
@@ -8836,17 +8836,17 @@
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-305</t>
+          <t>Saudia SV-335</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>1649</v>
+        <v>1903</v>
       </c>
       <c r="E186" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>-383</v>
+        <v>-129</v>
       </c>
       <c r="G186" s="2" t="n">
         <v>23</v>
@@ -8857,9 +8857,9 @@
       <c r="I186" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J186" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J186" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K186" s="2" t="inlineStr">
@@ -8881,26 +8881,26 @@
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Saudia SV-389</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>1649</v>
+        <v>1999</v>
       </c>
       <c r="E187" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>-383</v>
+        <v>-33</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I187" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J187" s="4" t="inlineStr">
         <is>
@@ -8926,1473 +8926,33 @@
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-573</t>
+          <t>Saudia SV-301</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>1669</v>
+        <v>2120</v>
       </c>
       <c r="E188" s="2" t="n">
         <v>2032</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>-363</v>
+        <v>88</v>
       </c>
       <c r="G188" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H188" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I188" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J188" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J188" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K188" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-565</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="n">
-        <v>1669</v>
-      </c>
-      <c r="E189" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F189" s="2" t="n">
-        <v>-363</v>
-      </c>
-      <c r="G189" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H189" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I189" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J189" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C190" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-583</t>
-        </is>
-      </c>
-      <c r="D190" s="2" t="n">
-        <v>1669</v>
-      </c>
-      <c r="E190" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F190" s="2" t="n">
-        <v>-363</v>
-      </c>
-      <c r="G190" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H190" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I190" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J190" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C191" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-571</t>
-        </is>
-      </c>
-      <c r="D191" s="2" t="n">
-        <v>1669</v>
-      </c>
-      <c r="E191" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F191" s="2" t="n">
-        <v>-363</v>
-      </c>
-      <c r="G191" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H191" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I191" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J191" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K191" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C192" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-567</t>
-        </is>
-      </c>
-      <c r="D192" s="2" t="n">
-        <v>1669</v>
-      </c>
-      <c r="E192" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F192" s="2" t="n">
-        <v>-363</v>
-      </c>
-      <c r="G192" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H192" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I192" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J192" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K192" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-589</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="n">
-        <v>1669</v>
-      </c>
-      <c r="E193" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F193" s="2" t="n">
-        <v>-363</v>
-      </c>
-      <c r="G193" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H193" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I193" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J193" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-577</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="n">
-        <v>1669</v>
-      </c>
-      <c r="E194" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F194" s="2" t="n">
-        <v>-363</v>
-      </c>
-      <c r="G194" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H194" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I194" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J194" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-389</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="n">
-        <v>1781</v>
-      </c>
-      <c r="E195" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F195" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G195" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H195" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I195" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J195" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-177</t>
-        </is>
-      </c>
-      <c r="D196" s="2" t="n">
-        <v>1845</v>
-      </c>
-      <c r="E196" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F196" s="2" t="n">
-        <v>-187</v>
-      </c>
-      <c r="G196" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H196" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I196" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-428</t>
-        </is>
-      </c>
-      <c r="D197" s="2" t="n">
-        <v>1849</v>
-      </c>
-      <c r="E197" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F197" s="2" t="n">
-        <v>-183</v>
-      </c>
-      <c r="G197" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H197" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I197" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C198" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-328</t>
-        </is>
-      </c>
-      <c r="D198" s="2" t="n">
-        <v>1849</v>
-      </c>
-      <c r="E198" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F198" s="2" t="n">
-        <v>-183</v>
-      </c>
-      <c r="G198" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H198" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I198" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C199" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-383</t>
-        </is>
-      </c>
-      <c r="D199" s="2" t="n">
-        <v>1903</v>
-      </c>
-      <c r="E199" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F199" s="2" t="n">
-        <v>-129</v>
-      </c>
-      <c r="G199" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H199" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I199" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J199" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B200" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-387</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="n">
-        <v>1903</v>
-      </c>
-      <c r="E200" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F200" s="2" t="n">
-        <v>-129</v>
-      </c>
-      <c r="G200" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H200" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I200" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J200" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-301</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="n">
-        <v>1903</v>
-      </c>
-      <c r="E201" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F201" s="2" t="n">
-        <v>-129</v>
-      </c>
-      <c r="G201" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H201" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I201" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J201" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>SM-432</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-3497</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="n">
-        <v>1903</v>
-      </c>
-      <c r="E202" s="2" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F202" s="2" t="n">
-        <v>-129</v>
-      </c>
-      <c r="G202" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H202" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I202" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J202" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-755</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="n">
-        <v>1299</v>
-      </c>
-      <c r="E203" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F203" s="2" t="n">
-        <v>-475</v>
-      </c>
-      <c r="G203" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H203" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I203" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J203" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-753</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>1299</v>
-      </c>
-      <c r="E204" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F204" s="2" t="n">
-        <v>-475</v>
-      </c>
-      <c r="G204" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H204" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I204" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J204" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-763</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>1299</v>
-      </c>
-      <c r="E205" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F205" s="2" t="n">
-        <v>-475</v>
-      </c>
-      <c r="G205" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H205" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I205" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J205" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-751</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>1299</v>
-      </c>
-      <c r="E206" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F206" s="2" t="n">
-        <v>-475</v>
-      </c>
-      <c r="G206" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H206" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I206" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J206" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-761</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="n">
-        <v>1299</v>
-      </c>
-      <c r="E207" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F207" s="2" t="n">
-        <v>-475</v>
-      </c>
-      <c r="G207" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H207" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I207" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J207" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-757</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>1299</v>
-      </c>
-      <c r="E208" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F208" s="2" t="n">
-        <v>-475</v>
-      </c>
-      <c r="G208" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H208" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I208" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J208" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-573</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="n">
-        <v>1479</v>
-      </c>
-      <c r="E209" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F209" s="2" t="n">
-        <v>-295</v>
-      </c>
-      <c r="G209" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H209" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I209" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J209" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K209" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-565</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="n">
-        <v>1479</v>
-      </c>
-      <c r="E210" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F210" s="2" t="n">
-        <v>-295</v>
-      </c>
-      <c r="G210" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H210" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I210" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J210" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C211" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-571</t>
-        </is>
-      </c>
-      <c r="D211" s="2" t="n">
-        <v>1479</v>
-      </c>
-      <c r="E211" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F211" s="2" t="n">
-        <v>-295</v>
-      </c>
-      <c r="G211" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H211" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I211" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J211" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-567</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="n">
-        <v>1479</v>
-      </c>
-      <c r="E212" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F212" s="2" t="n">
-        <v>-295</v>
-      </c>
-      <c r="G212" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H212" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I212" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J212" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-589</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="n">
-        <v>1479</v>
-      </c>
-      <c r="E213" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F213" s="2" t="n">
-        <v>-295</v>
-      </c>
-      <c r="G213" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H213" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I213" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J213" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-577</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="n">
-        <v>1479</v>
-      </c>
-      <c r="E214" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F214" s="2" t="n">
-        <v>-295</v>
-      </c>
-      <c r="G214" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H214" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I214" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J214" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-328</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="n">
-        <v>1541</v>
-      </c>
-      <c r="E215" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F215" s="2" t="n">
-        <v>-233</v>
-      </c>
-      <c r="G215" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H215" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I215" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-383</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="n">
-        <v>1541</v>
-      </c>
-      <c r="E216" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F216" s="2" t="n">
-        <v>-233</v>
-      </c>
-      <c r="G216" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H216" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I216" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-309</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="n">
-        <v>1649</v>
-      </c>
-      <c r="E217" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F217" s="2" t="n">
-        <v>-125</v>
-      </c>
-      <c r="G217" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H217" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I217" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J217" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-301</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="n">
-        <v>1649</v>
-      </c>
-      <c r="E218" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F218" s="2" t="n">
-        <v>-125</v>
-      </c>
-      <c r="G218" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H218" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I218" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J218" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B219" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C219" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-322</t>
-        </is>
-      </c>
-      <c r="D219" s="2" t="n">
-        <v>1668</v>
-      </c>
-      <c r="E219" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F219" s="2" t="n">
-        <v>-106</v>
-      </c>
-      <c r="G219" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H219" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I219" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B220" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C220" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-307</t>
-        </is>
-      </c>
-      <c r="D220" s="2" t="n">
-        <v>1867</v>
-      </c>
-      <c r="E220" s="2" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F220" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="G220" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H220" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I220" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J220" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
